--- a/Database/EUGCOMM_TRAITS.xlsx
+++ b/Database/EUGCOMM_TRAITS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Øystein Opedal\Dropbox\Papers\Euglossine communities\subm. files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8AD8D-ECAE-4751-BEF3-E25BB726B336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E0973E-0696-493F-9016-E7DD3DE920D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trait data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="248">
   <si>
     <t>Papers from which bee fragrance preferences were collected</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Nemésio 2008 Revista, Discussion</t>
   </si>
   <si>
-    <t>Also notes about bees collected in Silva and Rebelo 1999, Eg. Truncata = Eg. Amazonica?</t>
-  </si>
-  <si>
     <t>Alvarenga et al 2007, Results</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Storck-Tonon et al 2009, table 2</t>
   </si>
   <si>
-    <t>Genus</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -717,9 +711,6 @@
     <t>Nemesio &amp; Silveira 2007, Table 1</t>
   </si>
   <si>
-    <t>not1_8_cineole</t>
-  </si>
-  <si>
     <t>1_8_cineole_eucalyptol</t>
   </si>
   <si>
@@ -772,6 +763,9 @@
   </si>
   <si>
     <t>Body length from Ramírez et al. 2010</t>
+  </si>
+  <si>
+    <t>genus</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR1057"/>
+  <dimension ref="A1:AQ1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1190,220 +1184,216 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" customWidth="1"/>
-    <col min="25" max="29" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
+    <col min="20" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="28" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
         <v>231</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AA1" t="s">
         <v>232</v>
       </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG1" t="s">
         <v>234</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>235</v>
       </c>
-      <c r="AC1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>173</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="AQ1" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
       <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="6">
         <v>15</v>
@@ -1411,28 +1401,28 @@
       <c r="D6" s="6">
         <v>12.2</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6">
         <v>14.5</v>
@@ -1446,16 +1436,16 @@
       <c r="F7" s="7">
         <v>15.5</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6">
         <v>18</v>
@@ -1469,25 +1459,25 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="T8">
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
         <v>2</v>
       </c>
       <c r="AL8">
-        <v>2</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C9" s="6">
         <v>17</v>
@@ -1495,56 +1485,56 @@
       <c r="N9">
         <v>2</v>
       </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
       <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="6">
         <v>18.5</v>
@@ -1555,70 +1545,70 @@
       <c r="N12">
         <v>1</v>
       </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
       <c r="S12">
         <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" s="6">
         <v>16</v>
@@ -1639,66 +1629,66 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1">
         <v>2</v>
       </c>
       <c r="S16" s="1">
         <v>2</v>
       </c>
-      <c r="T16" s="1">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="Q17">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
         <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>15.5</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="Q18">
-        <v>1</v>
-      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="7">
         <v>6</v>
@@ -1710,20 +1700,20 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C20" s="6">
         <v>19.5</v>
@@ -1735,49 +1725,49 @@
         <v>19.22</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="Q20">
-        <v>1</v>
-      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6">
         <v>19</v>
       </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6">
         <v>24</v>
@@ -1797,34 +1787,34 @@
       <c r="J23">
         <v>4</v>
       </c>
-      <c r="P23" s="1">
+      <c r="O23" s="1">
         <v>7</v>
       </c>
-      <c r="Q23">
+      <c r="P23">
         <v>3</v>
       </c>
+      <c r="R23" s="1">
+        <v>3</v>
+      </c>
       <c r="S23" s="1">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
       </c>
       <c r="AM23">
         <v>1</v>
       </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6">
         <v>16.5</v>
@@ -1841,56 +1831,56 @@
       <c r="J24">
         <v>2</v>
       </c>
-      <c r="P24" s="1">
+      <c r="O24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24">
+      <c r="P24">
         <v>3</v>
       </c>
-      <c r="S24" s="1">
+      <c r="R24" s="1">
         <v>9</v>
       </c>
-      <c r="T24">
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AM24">
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
         <v>1</v>
       </c>
       <c r="AO24">
         <v>1</v>
       </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="6">
         <v>14</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" s="6">
         <v>14</v>
@@ -1898,23 +1888,23 @@
       <c r="D26" s="6">
         <v>16.7</v>
       </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1"/>
-      <c r="T26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" s="6">
         <v>19.5</v>
@@ -1931,38 +1921,38 @@
       <c r="N27">
         <v>2</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27">
+      <c r="O27" s="1"/>
+      <c r="P27">
         <v>4</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="1"/>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7">
         <v>14.17</v>
@@ -1973,31 +1963,28 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>1</v>
       </c>
       <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="R29">
         <v>4</v>
       </c>
-      <c r="T29" s="1">
+      <c r="S29" s="1">
         <v>4</v>
       </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="6">
         <v>18</v>
@@ -2014,31 +2001,31 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="R30">
-        <v>1</v>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3</v>
       </c>
       <c r="S30" s="1">
+        <v>11</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
         <v>3</v>
       </c>
-      <c r="T30" s="1">
-        <v>11</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <v>1</v>
-      </c>
-      <c r="AM30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="6">
         <v>16.5</v>
@@ -2052,88 +2039,85 @@
       <c r="N31">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1">
-        <v>1</v>
-      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="6">
         <v>13</v>
@@ -2151,44 +2135,40 @@
         <v>2</v>
       </c>
       <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="P36">
         <v>6</v>
       </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
       <c r="T36" s="1">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1">
         <v>4</v>
       </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="1"/>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2200,39 +2180,36 @@
         <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1">
         <v>6</v>
       </c>
-      <c r="Q38">
+      <c r="P38">
         <v>5</v>
       </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
       <c r="S38" s="1">
+        <v>4</v>
+      </c>
+      <c r="T38" s="1">
         <v>3</v>
       </c>
-      <c r="T38" s="1">
-        <v>4</v>
-      </c>
-      <c r="U38" s="1">
-        <v>3</v>
-      </c>
-      <c r="W38">
-        <v>2</v>
-      </c>
-      <c r="AG38">
-        <v>1</v>
-      </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="6">
         <v>6.3</v>
@@ -2244,84 +2221,78 @@
         <v>1</v>
       </c>
       <c r="O39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
         <v>4</v>
       </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>5</v>
-      </c>
-      <c r="Q40">
-        <v>4</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C43" s="6">
         <v>15</v>
@@ -2341,22 +2312,22 @@
       <c r="J43">
         <v>1</v>
       </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
       <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
         <v>3</v>
       </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6">
         <v>9.5</v>
@@ -2371,56 +2342,50 @@
         <v>2</v>
       </c>
       <c r="O44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1">
         <v>5</v>
       </c>
-      <c r="Q44">
+      <c r="P44">
         <v>6</v>
       </c>
+      <c r="R44" s="1">
+        <v>5</v>
+      </c>
       <c r="S44" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T44" s="1">
-        <v>7</v>
-      </c>
-      <c r="U44" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="T45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" s="6">
         <v>11</v>
@@ -2431,32 +2396,31 @@
       <c r="N46">
         <v>1</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="Q46">
+      <c r="P46">
         <v>3</v>
       </c>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E48" s="6">
         <v>6.78</v>
@@ -2468,30 +2432,27 @@
         <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="1">
         <v>4</v>
       </c>
-      <c r="Q48">
+      <c r="P48">
         <v>3</v>
       </c>
+      <c r="R48" s="1">
+        <v>3</v>
+      </c>
       <c r="S48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T48" s="1">
-        <v>4</v>
-      </c>
-      <c r="U48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="6">
         <v>11</v>
@@ -2512,139 +2473,135 @@
       <c r="N49">
         <v>1</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1">
+      <c r="O49" s="1">
         <v>3</v>
       </c>
-      <c r="Q49">
+      <c r="P49">
         <v>4</v>
       </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
       <c r="S49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" s="1">
-        <v>2</v>
-      </c>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
         <v>78</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>2</v>
-      </c>
-      <c r="Q52">
-        <v>4</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-      <c r="AB52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="O53" s="1">
-        <v>1</v>
+      <c r="O53">
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>2</v>
-      </c>
-      <c r="Q53">
         <v>6</v>
       </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
       <c r="S53">
-        <v>3</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C54" s="6">
         <v>13</v>
@@ -2658,29 +2615,28 @@
       <c r="F54" s="6">
         <v>12.52</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="Q54">
+      <c r="P54">
         <v>4</v>
       </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
       <c r="S54">
-        <v>4</v>
-      </c>
-      <c r="T54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
         <v>2</v>
       </c>
       <c r="AL54">
-        <v>2</v>
-      </c>
-      <c r="AM54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="6">
         <v>7.87</v>
@@ -2697,48 +2653,45 @@
       <c r="O55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="S55" s="1">
-        <v>1</v>
-      </c>
-      <c r="U55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>1</v>
       </c>
       <c r="T56">
         <v>1</v>
       </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" s="6">
         <v>13</v>
@@ -2759,33 +2712,30 @@
         <v>2</v>
       </c>
       <c r="O57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="P57">
         <v>3</v>
       </c>
+      <c r="R57" s="1">
+        <v>9</v>
+      </c>
       <c r="S57" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T57" s="1">
         <v>1</v>
       </c>
-      <c r="U57" s="1">
-        <v>1</v>
-      </c>
-      <c r="X57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -2809,33 +2759,30 @@
         <v>4</v>
       </c>
       <c r="O58" s="1">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1</v>
+      </c>
+      <c r="S58">
         <v>4</v>
       </c>
-      <c r="P58" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>10</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1</v>
-      </c>
       <c r="T58">
-        <v>4</v>
-      </c>
-      <c r="U58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" s="6">
         <v>10</v>
@@ -2858,37 +2805,37 @@
       <c r="N59">
         <v>1</v>
       </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
       <c r="P59">
         <v>3</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>3</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="1">
         <v>3</v>
       </c>
       <c r="T59" s="1">
-        <v>3</v>
-      </c>
-      <c r="U59" s="1">
-        <v>2</v>
-      </c>
-      <c r="X59">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
-      <c r="AM59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="6">
         <v>10</v>
@@ -2906,20 +2853,20 @@
       <c r="N60">
         <v>2</v>
       </c>
-      <c r="Q60">
-        <v>2</v>
-      </c>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="S60" s="1">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C61" s="6">
         <v>11</v>
@@ -2928,15 +2875,15 @@
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="6">
         <v>11</v>
@@ -2953,28 +2900,28 @@
       <c r="H62" s="1">
         <v>2</v>
       </c>
-      <c r="Q62">
+      <c r="P62">
         <v>3</v>
       </c>
+      <c r="R62" s="1">
+        <v>3</v>
+      </c>
       <c r="S62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T62" s="1">
         <v>2</v>
       </c>
-      <c r="U62" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="6">
         <v>11</v>
@@ -3000,23 +2947,23 @@
       <c r="N63">
         <v>1</v>
       </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="S63" s="1"/>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
       <c r="T63" s="1">
         <v>1</v>
       </c>
-      <c r="U63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E64" s="6">
         <v>10.37</v>
@@ -3024,16 +2971,16 @@
       <c r="F64" s="6">
         <v>11.07</v>
       </c>
-      <c r="T64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="6">
         <v>11</v>
@@ -3056,37 +3003,34 @@
       <c r="N65">
         <v>3</v>
       </c>
-      <c r="O65" s="3">
-        <v>1</v>
+      <c r="O65">
+        <v>6</v>
       </c>
       <c r="P65">
-        <v>6</v>
-      </c>
-      <c r="Q65">
         <v>9</v>
       </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-      <c r="U65">
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65">
         <v>4</v>
       </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
       <c r="AM65">
         <v>1</v>
       </c>
-      <c r="AN65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" s="6">
         <v>11</v>
@@ -3103,26 +3047,25 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="O66" s="3"/>
+      <c r="O66">
+        <v>2</v>
+      </c>
       <c r="P66">
-        <v>2</v>
-      </c>
-      <c r="Q66">
         <v>3</v>
       </c>
+      <c r="S66" s="1">
+        <v>1</v>
+      </c>
       <c r="T66" s="1">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C67" s="6">
         <v>10</v>
@@ -3142,27 +3085,26 @@
       <c r="N67">
         <v>1</v>
       </c>
-      <c r="O67" s="3"/>
+      <c r="O67">
+        <v>2</v>
+      </c>
       <c r="P67">
-        <v>2</v>
-      </c>
-      <c r="Q67">
         <v>4</v>
       </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67" s="1">
-        <v>2</v>
-      </c>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67" s="1">
+        <v>2</v>
+      </c>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="6">
         <v>12</v>
@@ -3179,70 +3121,65 @@
       <c r="H68">
         <v>2</v>
       </c>
-      <c r="O68" s="3"/>
-      <c r="Q68">
-        <v>2</v>
-      </c>
-      <c r="S68">
-        <v>1</v>
-      </c>
-      <c r="T68" s="1">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" s="6">
         <v>10</v>
       </c>
-      <c r="O69" s="3"/>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N70" s="3">
         <v>5</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70">
+        <v>9</v>
+      </c>
+      <c r="P70" s="3">
+        <v>13</v>
+      </c>
+      <c r="S70">
         <v>3</v>
       </c>
-      <c r="P70">
-        <v>9</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>13</v>
-      </c>
       <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C71" s="6">
         <v>14</v>
@@ -3260,23 +3197,22 @@
         <v>1</v>
       </c>
       <c r="N71" s="3"/>
-      <c r="O71" s="1"/>
-      <c r="P71">
-        <v>2</v>
-      </c>
-      <c r="Q71" s="3">
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71" s="3">
         <v>3</v>
       </c>
-      <c r="T71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3287,19 +3223,19 @@
       <c r="N72" s="3">
         <v>1</v>
       </c>
-      <c r="Q72">
+      <c r="P72">
         <v>3</v>
       </c>
-      <c r="S72" s="1">
+      <c r="R72" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C73" s="6">
         <v>10</v>
@@ -3314,22 +3250,22 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="N73" s="3"/>
+      <c r="O73">
+        <v>1</v>
+      </c>
       <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
         <v>4</v>
       </c>
-      <c r="S73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C74" s="6">
         <v>11</v>
@@ -3349,28 +3285,28 @@
       <c r="N74" s="3">
         <v>1</v>
       </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
       <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
         <v>4</v>
       </c>
-      <c r="S74" s="1">
+      <c r="R74" s="1">
+        <v>2</v>
+      </c>
+      <c r="S74">
         <v>2</v>
       </c>
       <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="6">
         <v>11</v>
@@ -3390,25 +3326,25 @@
       <c r="N75" s="1">
         <v>1</v>
       </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
       <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="R75">
         <v>5</v>
       </c>
-      <c r="AL75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" s="6">
         <v>11</v>
@@ -3428,37 +3364,37 @@
       <c r="N76">
         <v>1</v>
       </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
       <c r="P76">
-        <v>2</v>
-      </c>
-      <c r="Q76">
         <v>5</v>
       </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
       <c r="S76">
-        <v>3</v>
-      </c>
-      <c r="T76">
-        <v>2</v>
-      </c>
-      <c r="X76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="AK76">
         <v>1</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
-        <v>1</v>
-      </c>
-      <c r="AN76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="6">
         <v>14.5</v>
@@ -3479,48 +3415,45 @@
         <v>5</v>
       </c>
       <c r="O77" s="1">
-        <v>2</v>
-      </c>
-      <c r="P77" s="1">
         <v>5</v>
       </c>
-      <c r="Q77">
+      <c r="P77">
         <v>8</v>
       </c>
+      <c r="R77" s="1">
+        <v>9</v>
+      </c>
       <c r="S77" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T77" s="1">
-        <v>4</v>
-      </c>
-      <c r="U77" s="1">
-        <v>2</v>
-      </c>
-      <c r="W77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>3</v>
       </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
       <c r="AA77">
-        <v>1</v>
-      </c>
-      <c r="AB77">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AC77">
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>1</v>
       </c>
-      <c r="AE77">
-        <v>1</v>
-      </c>
-      <c r="AH77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" s="6">
         <v>13</v>
@@ -3530,25 +3463,24 @@
       </c>
       <c r="H78" s="1"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q78">
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1">
-        <v>2</v>
-      </c>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="1"/>
+      <c r="S78" s="1">
+        <v>2</v>
+      </c>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" s="6">
         <v>15</v>
@@ -3568,46 +3500,43 @@
       <c r="N79">
         <v>4</v>
       </c>
-      <c r="O79" s="1">
-        <v>2</v>
+      <c r="O79">
+        <v>5</v>
       </c>
       <c r="P79">
+        <v>15</v>
+      </c>
+      <c r="R79" s="1">
+        <v>13</v>
+      </c>
+      <c r="S79" s="1">
         <v>5</v>
       </c>
-      <c r="Q79">
-        <v>15</v>
-      </c>
-      <c r="S79" s="1">
-        <v>13</v>
-      </c>
       <c r="T79" s="1">
-        <v>5</v>
-      </c>
-      <c r="U79" s="1">
-        <v>2</v>
-      </c>
-      <c r="V79">
-        <v>1</v>
-      </c>
-      <c r="X79" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y79">
-        <v>1</v>
-      </c>
-      <c r="AB79">
-        <v>2</v>
-      </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="W79" s="1">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>2</v>
+      </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E80" s="7">
         <v>29.2</v>
@@ -3624,60 +3553,54 @@
       <c r="N80" s="1">
         <v>1</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80">
         <v>1</v>
       </c>
       <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
         <v>2</v>
       </c>
       <c r="S80">
-        <v>2</v>
-      </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
-      <c r="AB80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J81">
         <v>2</v>
       </c>
       <c r="O81" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P81" s="3">
         <v>5</v>
       </c>
-      <c r="Q81" s="3">
-        <v>5</v>
+      <c r="Q81">
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>2</v>
-      </c>
-      <c r="T81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82" s="7">
         <v>8.8699999999999992</v>
@@ -3688,107 +3611,101 @@
       <c r="N82" s="3">
         <v>2</v>
       </c>
-      <c r="O82" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="3">
+      <c r="P82" s="3">
         <v>4</v>
       </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
       <c r="T82">
         <v>1</v>
       </c>
-      <c r="U82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
-      <c r="S83" s="1">
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="R83" s="1">
         <v>4</v>
       </c>
-      <c r="U83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s">
         <v>94</v>
       </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" t="s">
-        <v>150</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
         <v>95</v>
-      </c>
-      <c r="N86" s="3">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
       </c>
       <c r="E88" s="7">
         <v>23.87</v>
@@ -3799,19 +3716,19 @@
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E89" s="7">
         <v>12.6</v>
@@ -3820,12 +3737,12 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C90" s="6">
         <v>12</v>
@@ -3839,62 +3756,62 @@
       <c r="F90" s="7">
         <v>12.35</v>
       </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
         <v>98</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="P91" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-      <c r="U92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" t="s">
-        <v>100</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -3902,25 +3819,22 @@
       <c r="N93">
         <v>3</v>
       </c>
-      <c r="O93" s="1">
-        <v>2</v>
+      <c r="O93">
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>8</v>
-      </c>
-      <c r="Q93">
         <v>6</v>
       </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E94" s="6">
         <v>6.6</v>
@@ -3937,19 +3851,19 @@
       <c r="N94">
         <v>1</v>
       </c>
-      <c r="Q94">
-        <v>1</v>
-      </c>
-      <c r="AA94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C95" s="6">
         <v>11</v>
@@ -3973,36 +3887,33 @@
         <v>4</v>
       </c>
       <c r="O95" s="1">
-        <v>1</v>
-      </c>
-      <c r="P95" s="1">
         <v>4</v>
       </c>
-      <c r="Q95">
+      <c r="P95">
         <v>3</v>
       </c>
+      <c r="R95" s="1">
+        <v>11</v>
+      </c>
       <c r="S95" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T95" s="1">
-        <v>4</v>
-      </c>
-      <c r="U95" s="1">
         <v>5</v>
       </c>
-      <c r="X95" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E96" s="7">
         <v>8.57</v>
@@ -4022,59 +3933,56 @@
       <c r="O96" s="1">
         <v>2</v>
       </c>
-      <c r="P96" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q96">
+      <c r="P96">
         <v>10</v>
       </c>
+      <c r="R96" s="1">
+        <v>4</v>
+      </c>
       <c r="S96" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T96" s="1">
         <v>1</v>
       </c>
-      <c r="U96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
       <c r="T97">
         <v>1</v>
       </c>
-      <c r="U97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
-      </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="T98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H99" s="1">
         <v>3</v>
@@ -4082,82 +3990,79 @@
       <c r="N99">
         <v>1</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99">
         <v>1</v>
       </c>
       <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99">
         <v>3</v>
       </c>
+      <c r="R99" s="1">
+        <v>2</v>
+      </c>
       <c r="S99" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T99" s="1">
-        <v>5</v>
-      </c>
-      <c r="U99" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AI99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
       </c>
       <c r="P100">
         <v>1</v>
       </c>
-      <c r="Q100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="P101">
-        <v>1</v>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
       </c>
       <c r="S101">
         <v>2</v>
       </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C102" s="6">
         <v>11</v>
       </c>
-      <c r="S102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -4166,27 +4071,27 @@
         <v>3</v>
       </c>
       <c r="O103" s="1">
-        <v>1</v>
-      </c>
-      <c r="P103" s="1">
         <v>4</v>
       </c>
-      <c r="Q103">
+      <c r="P103">
         <v>3</v>
       </c>
-      <c r="S103" s="1">
+      <c r="R103" s="1">
         <v>5</v>
       </c>
-      <c r="T103">
+      <c r="S103">
         <v>3</v>
       </c>
-      <c r="U103" s="1">
-        <v>1</v>
-      </c>
-      <c r="V103">
-        <v>1</v>
-      </c>
-      <c r="X103">
+      <c r="T103" s="1">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
         <v>1</v>
       </c>
       <c r="Z103">
@@ -4195,109 +4100,103 @@
       <c r="AA103">
         <v>1</v>
       </c>
-      <c r="AB103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AH106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
         <v>109</v>
       </c>
-      <c r="T104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="T105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD106">
-        <v>1</v>
-      </c>
-      <c r="AI106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3">
+        <v>15</v>
+      </c>
+      <c r="P109" s="3">
+        <v>13</v>
+      </c>
+      <c r="R109" s="3">
+        <v>2</v>
+      </c>
+      <c r="S109" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" t="s">
         <v>111</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <v>1</v>
-      </c>
-      <c r="T107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B108" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109" s="3">
-        <v>3</v>
-      </c>
-      <c r="P109" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>13</v>
-      </c>
-      <c r="S109" s="3">
-        <v>2</v>
-      </c>
-      <c r="T109" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
       </c>
       <c r="E110" s="7">
         <v>10.029999999999999</v>
@@ -4305,22 +4204,22 @@
       <c r="F110" s="7">
         <v>9.98</v>
       </c>
+      <c r="R110" s="1">
+        <v>1</v>
+      </c>
       <c r="S110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T110" s="1">
-        <v>2</v>
-      </c>
-      <c r="U110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C111" s="6">
         <v>11</v>
@@ -4328,18 +4227,18 @@
       <c r="D111" s="6">
         <v>18.7</v>
       </c>
+      <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T111" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E112" s="7">
         <v>7.57</v>
@@ -4350,16 +4249,16 @@
       <c r="N112">
         <v>1</v>
       </c>
+      <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -4376,42 +4275,42 @@
       <c r="N113">
         <v>2</v>
       </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="S113">
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="R113">
         <v>4</v>
       </c>
-      <c r="X113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
       </c>
       <c r="P114">
         <v>1</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>1</v>
       </c>
       <c r="S114">
         <v>1</v>
       </c>
-      <c r="T114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E115" s="7">
         <v>22.3</v>
@@ -4419,19 +4318,19 @@
       <c r="F115" s="7">
         <v>17.93</v>
       </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="AB115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="AA115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E116" s="7">
         <v>27.8</v>
@@ -4442,19 +4341,19 @@
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="Q116">
-        <v>2</v>
-      </c>
-      <c r="S116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117" s="6">
         <v>10</v>
@@ -4471,37 +4370,34 @@
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="O117" s="3">
-        <v>2</v>
-      </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="3">
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" s="3">
         <v>5</v>
       </c>
-      <c r="S117" s="1">
+      <c r="R117" s="1">
         <v>3</v>
       </c>
-      <c r="T117" s="3">
+      <c r="S117" s="3">
         <v>4</v>
       </c>
-      <c r="U117" s="1">
-        <v>1</v>
-      </c>
-      <c r="X117">
-        <v>1</v>
-      </c>
-      <c r="AO117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T117" s="1">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>1</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -4509,31 +4405,28 @@
       <c r="N118" s="3">
         <v>8</v>
       </c>
-      <c r="O118" s="1">
-        <v>3</v>
+      <c r="O118" s="3">
+        <v>11</v>
       </c>
       <c r="P118" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q118" s="3">
         <v>12</v>
       </c>
-      <c r="S118" s="1">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R118" s="1">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4547,28 +4440,28 @@
       <c r="L119">
         <v>1</v>
       </c>
+      <c r="O119">
+        <v>6</v>
+      </c>
       <c r="P119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q119">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R119">
         <v>1</v>
       </c>
       <c r="S119">
-        <v>1</v>
-      </c>
-      <c r="T119">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E120" s="7">
         <v>11.3</v>
@@ -4576,19 +4469,19 @@
       <c r="F120" s="7">
         <v>9.73</v>
       </c>
-      <c r="Q120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C121" s="6">
         <v>10</v>
@@ -4597,27 +4490,24 @@
         <v>1</v>
       </c>
       <c r="O121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>3</v>
-      </c>
-      <c r="Q121">
         <v>9</v>
       </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
       <c r="S121">
-        <v>1</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C122" s="6">
         <v>11.5</v>
@@ -4643,37 +4533,37 @@
       <c r="N122">
         <v>4</v>
       </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
       <c r="P122">
         <v>4</v>
       </c>
-      <c r="Q122">
-        <v>4</v>
-      </c>
-      <c r="T122">
-        <v>2</v>
-      </c>
-      <c r="X122">
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="W122">
+        <v>1</v>
+      </c>
+      <c r="AK122">
         <v>1</v>
       </c>
       <c r="AL122">
         <v>1</v>
       </c>
       <c r="AM122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN122">
-        <v>2</v>
-      </c>
-      <c r="AO122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -4681,28 +4571,25 @@
       <c r="N123">
         <v>1</v>
       </c>
-      <c r="O123">
-        <v>2</v>
-      </c>
-      <c r="P123" s="3">
+      <c r="O123" s="3">
         <v>12</v>
       </c>
-      <c r="Q123">
+      <c r="P123">
         <v>8</v>
       </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
       <c r="S123">
-        <v>1</v>
-      </c>
-      <c r="T123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C124" s="6">
         <v>11</v>
@@ -4716,14 +4603,14 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="P124" s="3"/>
-    </row>
-    <row r="125" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C125" s="6">
         <v>10</v>
@@ -4749,45 +4636,45 @@
       <c r="N125">
         <v>2</v>
       </c>
+      <c r="O125">
+        <v>2</v>
+      </c>
       <c r="P125">
-        <v>2</v>
-      </c>
-      <c r="Q125">
         <v>3</v>
       </c>
+      <c r="R125">
+        <v>1</v>
+      </c>
       <c r="S125">
         <v>1</v>
       </c>
-      <c r="T125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C126" s="6">
         <v>13</v>
       </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
-      <c r="U126">
-        <v>1</v>
-      </c>
-      <c r="AN126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="T126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C127" s="6">
         <v>10</v>
@@ -4798,42 +4685,42 @@
       <c r="F127" s="7">
         <v>11.33</v>
       </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
       <c r="S127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128">
         <v>4</v>
       </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B128" t="s">
-        <v>123</v>
-      </c>
-      <c r="H128">
-        <v>2</v>
-      </c>
-      <c r="P128">
-        <v>2</v>
-      </c>
-      <c r="Q128">
-        <v>4</v>
-      </c>
-      <c r="S128">
-        <v>2</v>
-      </c>
-      <c r="AD128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="AC128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E129" s="7">
         <v>6.73</v>
@@ -4841,22 +4728,22 @@
       <c r="F129" s="7">
         <v>10.9</v>
       </c>
-      <c r="P129">
-        <v>2</v>
+      <c r="O129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
       </c>
       <c r="S129">
-        <v>4</v>
-      </c>
-      <c r="T129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C130" s="6">
         <v>12</v>
@@ -4873,73 +4760,70 @@
       <c r="N130">
         <v>1</v>
       </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
       <c r="P130">
         <v>1</v>
       </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="S130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
+        <v>123</v>
+      </c>
+      <c r="P131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
         <v>125</v>
       </c>
-      <c r="O131">
-        <v>2</v>
-      </c>
-      <c r="Q131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B132" t="s">
-        <v>154</v>
-      </c>
-      <c r="S132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="AA133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
         <v>126</v>
-      </c>
-      <c r="B133" t="s">
-        <v>127</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="Q133">
-        <v>1</v>
-      </c>
-      <c r="S133">
-        <v>1</v>
-      </c>
-      <c r="T133">
-        <v>1</v>
-      </c>
-      <c r="AB133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B134" t="s">
-        <v>128</v>
       </c>
       <c r="C134" s="6">
         <v>28</v>
@@ -4959,46 +4843,46 @@
       <c r="N134">
         <v>2</v>
       </c>
-      <c r="P134">
-        <v>2</v>
+      <c r="O134">
+        <v>2</v>
+      </c>
+      <c r="R134" s="1">
+        <v>10</v>
       </c>
       <c r="S134" s="1">
-        <v>10</v>
-      </c>
-      <c r="T134" s="1">
-        <v>2</v>
-      </c>
-      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+      <c r="V134">
         <v>1</v>
       </c>
       <c r="W134">
         <v>1</v>
       </c>
-      <c r="X134">
-        <v>1</v>
-      </c>
-      <c r="AB134">
-        <v>1</v>
-      </c>
-      <c r="AD134">
-        <v>1</v>
-      </c>
-      <c r="AJ134">
-        <v>1</v>
-      </c>
-      <c r="AM134">
-        <v>1</v>
-      </c>
-      <c r="AP134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA134">
+        <v>1</v>
+      </c>
+      <c r="AC134">
+        <v>1</v>
+      </c>
+      <c r="AI134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C135" s="6">
         <v>20</v>
@@ -5025,90 +4909,87 @@
         <v>6</v>
       </c>
       <c r="O135" s="1">
+        <v>18</v>
+      </c>
+      <c r="P135" s="3">
+        <v>8</v>
+      </c>
+      <c r="R135" s="1">
+        <v>8</v>
+      </c>
+      <c r="S135" s="1">
+        <v>18</v>
+      </c>
+      <c r="T135" s="1">
+        <v>6</v>
+      </c>
+      <c r="W135" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI135">
+        <v>1</v>
+      </c>
+      <c r="AK135">
+        <v>2</v>
+      </c>
+      <c r="AL135">
         <v>3</v>
       </c>
-      <c r="P135" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q135" s="3">
-        <v>8</v>
-      </c>
-      <c r="S135" s="1">
-        <v>8</v>
-      </c>
-      <c r="T135" s="1">
-        <v>18</v>
-      </c>
-      <c r="U135" s="1">
-        <v>6</v>
-      </c>
-      <c r="X135" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ135">
-        <v>1</v>
-      </c>
-      <c r="AL135">
-        <v>2</v>
-      </c>
-      <c r="AM135">
-        <v>3</v>
-      </c>
-      <c r="AR135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B136" t="s">
+        <v>128</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>223</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" t="s">
         <v>130</v>
-      </c>
-      <c r="S136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B137" t="s">
-        <v>131</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
-      <c r="T137">
-        <v>1</v>
-      </c>
-      <c r="U137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" t="s">
-        <v>225</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" t="s">
-        <v>132</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -5119,14 +5000,17 @@
       <c r="N139">
         <v>2</v>
       </c>
+      <c r="O139">
+        <v>5</v>
+      </c>
       <c r="P139">
+        <v>2</v>
+      </c>
+      <c r="S139">
         <v>5</v>
       </c>
-      <c r="Q139">
-        <v>2</v>
-      </c>
       <c r="T139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U139">
         <v>1</v>
@@ -5143,22 +5027,19 @@
       <c r="Y139">
         <v>1</v>
       </c>
-      <c r="Z139">
+      <c r="AA139">
         <v>1</v>
       </c>
       <c r="AB139">
         <v>1</v>
       </c>
-      <c r="AC139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C140" s="6">
         <v>26</v>
@@ -5185,57 +5066,54 @@
         <v>7</v>
       </c>
       <c r="O140" s="1">
-        <v>1</v>
-      </c>
-      <c r="P140" s="1">
         <v>7</v>
       </c>
-      <c r="Q140">
+      <c r="P140">
         <v>13</v>
       </c>
+      <c r="R140" s="1">
+        <v>14</v>
+      </c>
       <c r="S140" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T140" s="1">
-        <v>10</v>
-      </c>
-      <c r="U140" s="1">
         <v>5</v>
       </c>
+      <c r="V140" s="1">
+        <v>2</v>
+      </c>
       <c r="W140" s="1">
         <v>2</v>
       </c>
-      <c r="X140" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB140">
+      <c r="AA140">
+        <v>1</v>
+      </c>
+      <c r="AC140">
         <v>1</v>
       </c>
       <c r="AD140">
         <v>1</v>
       </c>
-      <c r="AE140">
-        <v>1</v>
-      </c>
-      <c r="AH140">
+      <c r="AG140">
+        <v>1</v>
+      </c>
+      <c r="AI140">
         <v>1</v>
       </c>
       <c r="AJ140">
         <v>1</v>
       </c>
-      <c r="AK140">
-        <v>1</v>
-      </c>
-      <c r="AP140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E141" s="7">
         <v>12.13</v>
@@ -5247,30 +5125,27 @@
         <v>3</v>
       </c>
       <c r="O141" s="1">
-        <v>1</v>
-      </c>
-      <c r="P141" s="1">
         <v>4</v>
       </c>
-      <c r="Q141">
+      <c r="P141">
         <v>5</v>
       </c>
+      <c r="R141" s="1">
+        <v>7</v>
+      </c>
       <c r="S141" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T141" s="1">
-        <v>5</v>
-      </c>
-      <c r="U141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C142" s="6">
         <v>18</v>
@@ -5297,65 +5172,62 @@
         <v>5</v>
       </c>
       <c r="O142" s="1">
-        <v>6</v>
-      </c>
-      <c r="P142" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q142" s="3">
+        <v>2</v>
+      </c>
+      <c r="P142" s="3">
         <v>28</v>
       </c>
+      <c r="R142" s="1">
+        <v>5</v>
+      </c>
       <c r="S142" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T142" s="1">
-        <v>25</v>
-      </c>
-      <c r="U142" s="1">
         <v>8</v>
       </c>
-      <c r="V142">
-        <v>1</v>
-      </c>
-      <c r="AB142">
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="AA142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
         <v>2</v>
       </c>
       <c r="AL142">
-        <v>2</v>
-      </c>
-      <c r="AM142">
-        <v>1</v>
-      </c>
-      <c r="AO142">
-        <v>2</v>
-      </c>
-      <c r="AQ142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AN142">
+        <v>2</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N143">
         <v>1</v>
       </c>
-      <c r="S143">
-        <v>1</v>
-      </c>
-      <c r="AB143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="AA143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E144" s="7">
         <v>17.53</v>
@@ -5366,19 +5238,19 @@
       <c r="H144" s="1">
         <v>1</v>
       </c>
-      <c r="W144">
-        <v>1</v>
-      </c>
-      <c r="AB144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V144">
+        <v>1</v>
+      </c>
+      <c r="AA144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C145" s="6">
         <v>19</v>
@@ -5396,48 +5268,45 @@
       <c r="K145">
         <v>1</v>
       </c>
-      <c r="Q145">
+      <c r="P145">
+        <v>2</v>
+      </c>
+      <c r="S145" s="1">
         <v>2</v>
       </c>
       <c r="T145" s="1">
-        <v>2</v>
-      </c>
-      <c r="U145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
       </c>
       <c r="O146" s="1">
-        <v>1</v>
-      </c>
-      <c r="P146" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="R146" s="1">
+        <v>1</v>
       </c>
       <c r="S146" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T146" s="1">
-        <v>3</v>
-      </c>
-      <c r="U146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C147" s="6">
         <v>24</v>
@@ -5449,12 +5318,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C148" s="6">
         <v>20</v>
@@ -5468,47 +5337,47 @@
       <c r="F148" s="7">
         <v>17.350000000000001</v>
       </c>
-      <c r="Q148">
-        <v>2</v>
-      </c>
-      <c r="AQ148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>2</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="150" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C150" s="6">
         <v>20</v>
       </c>
-      <c r="S150">
-        <v>1</v>
-      </c>
-      <c r="T150" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" t="s">
         <v>139</v>
-      </c>
-      <c r="B151" t="s">
-        <v>141</v>
       </c>
       <c r="C151" s="6">
         <v>25</v>
@@ -5532,36 +5401,33 @@
         <v>7</v>
       </c>
       <c r="O151" s="1">
-        <v>1</v>
-      </c>
-      <c r="P151" s="1">
         <v>11</v>
       </c>
-      <c r="Q151">
+      <c r="P151">
         <v>16</v>
       </c>
+      <c r="R151" s="1">
+        <v>9</v>
+      </c>
       <c r="S151" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T151" s="1">
         <v>3</v>
       </c>
-      <c r="U151" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB151">
-        <v>1</v>
-      </c>
-      <c r="AD151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA151">
+        <v>1</v>
+      </c>
+      <c r="AC151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -5569,28 +5435,25 @@
       <c r="O152" s="1">
         <v>1</v>
       </c>
-      <c r="P152" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q152">
-        <v>1</v>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="R152" s="1">
+        <v>2</v>
       </c>
       <c r="S152" s="1">
         <v>2</v>
       </c>
       <c r="T152" s="1">
-        <v>2</v>
-      </c>
-      <c r="U152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C153" s="6">
         <v>20</v>
@@ -5617,37 +5480,34 @@
         <v>8</v>
       </c>
       <c r="O153" s="1">
-        <v>4</v>
-      </c>
-      <c r="P153" s="1">
         <v>19</v>
       </c>
-      <c r="Q153" s="3">
+      <c r="P153" s="3">
         <v>22</v>
       </c>
+      <c r="R153" s="1">
+        <v>11</v>
+      </c>
       <c r="S153" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T153" s="1">
-        <v>15</v>
-      </c>
-      <c r="U153" s="1">
-        <v>1</v>
-      </c>
-      <c r="X153" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>1</v>
+      </c>
+      <c r="W153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6566,39 +6426,39 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6610,8 +6470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6630,7 +6490,7 @@
     <row r="3" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="D3" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6673,171 +6533,168 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Database/EUGCOMM_TRAITS.xlsx
+++ b/Database/EUGCOMM_TRAITS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Øystein Opedal\Dropbox\Papers\Euglossine communities\subm. files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\eugcomm\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E0973E-0696-493F-9016-E7DD3DE920D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD40F3C-7ABD-4E50-8103-7D6CC73B2165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,15 @@
     <sheet name="Variable codes" sheetId="3" r:id="rId2"/>
     <sheet name="Data sources" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1166,9 +1174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1057"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="P156" sqref="P156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1967,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -2069,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -2138,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S36" s="1">
         <v>1</v>
@@ -2183,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R38" s="1">
         <v>3</v>
@@ -2223,8 +2231,8 @@
       <c r="O39" s="3">
         <v>4</v>
       </c>
-      <c r="P39" s="3">
-        <v>1</v>
+      <c r="P39">
+        <v>2</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2256,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2345,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R44" s="1">
         <v>5</v>
@@ -2371,7 +2379,7 @@
         <v>71</v>
       </c>
       <c r="P45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -2435,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R48" s="1">
         <v>3</v>
@@ -2581,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R53">
         <v>3</v>
@@ -2654,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" s="1">
         <v>1</v>
@@ -2715,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R57" s="1">
         <v>9</v>
@@ -2761,8 +2769,8 @@
       <c r="O58" s="1">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>10</v>
+      <c r="P58">
+        <v>14</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -3007,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="P65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -3164,8 +3172,8 @@
       <c r="O70">
         <v>9</v>
       </c>
-      <c r="P70" s="3">
-        <v>13</v>
+      <c r="P70">
+        <v>16</v>
       </c>
       <c r="S70">
         <v>3</v>
@@ -3200,7 +3208,7 @@
       <c r="O71">
         <v>2</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71">
         <v>3</v>
       </c>
       <c r="S71" s="1">
@@ -3418,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="P77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R77" s="1">
         <v>9</v>
@@ -3504,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="P79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R79" s="1">
         <v>13</v>
@@ -3557,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="P80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R80">
         <v>2</v>
@@ -3582,8 +3590,8 @@
       <c r="O81" s="3">
         <v>5</v>
       </c>
-      <c r="P81" s="3">
-        <v>5</v>
+      <c r="P81">
+        <v>7</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -3611,8 +3619,8 @@
       <c r="N82" s="3">
         <v>2</v>
       </c>
-      <c r="P82" s="3">
-        <v>4</v>
+      <c r="P82">
+        <v>5</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -3677,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3823,7 +3831,7 @@
         <v>8</v>
       </c>
       <c r="P93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R93">
         <v>1</v>
@@ -3890,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R95" s="1">
         <v>11</v>
@@ -3934,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="P96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R96" s="1">
         <v>4</v>
@@ -3994,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R99" s="1">
         <v>2</v>
@@ -4074,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R103" s="1">
         <v>5</v>
@@ -4181,8 +4189,8 @@
       <c r="O109" s="3">
         <v>15</v>
       </c>
-      <c r="P109" s="3">
-        <v>13</v>
+      <c r="P109">
+        <v>16</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
@@ -4373,8 +4381,8 @@
       <c r="O117">
         <v>1</v>
       </c>
-      <c r="P117" s="3">
-        <v>5</v>
+      <c r="P117">
+        <v>7</v>
       </c>
       <c r="R117" s="1">
         <v>3</v>
@@ -4408,8 +4416,8 @@
       <c r="O118" s="3">
         <v>11</v>
       </c>
-      <c r="P118" s="3">
-        <v>12</v>
+      <c r="P118">
+        <v>15</v>
       </c>
       <c r="R118" s="1">
         <v>2</v>
@@ -4493,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R121">
         <v>1</v>
@@ -4575,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="P123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R123">
         <v>1</v>
@@ -4778,7 +4786,7 @@
         <v>123</v>
       </c>
       <c r="P131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -4911,8 +4919,8 @@
       <c r="O135" s="1">
         <v>18</v>
       </c>
-      <c r="P135" s="3">
-        <v>8</v>
+      <c r="P135">
+        <v>11</v>
       </c>
       <c r="R135" s="1">
         <v>8</v>
@@ -5069,7 +5077,7 @@
         <v>7</v>
       </c>
       <c r="P140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R140" s="1">
         <v>14</v>
@@ -5128,7 +5136,7 @@
         <v>4</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R141" s="1">
         <v>7</v>
@@ -5174,8 +5182,8 @@
       <c r="O142" s="1">
         <v>2</v>
       </c>
-      <c r="P142" s="3">
-        <v>28</v>
+      <c r="P142">
+        <v>34</v>
       </c>
       <c r="R142" s="1">
         <v>5</v>
@@ -5291,6 +5299,9 @@
       <c r="O146" s="1">
         <v>2</v>
       </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
       <c r="R146" s="1">
         <v>1</v>
       </c>
@@ -5404,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="P151">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R151" s="1">
         <v>9</v>
@@ -5436,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="P152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R152" s="1">
         <v>2</v>
@@ -5482,8 +5493,8 @@
       <c r="O153" s="1">
         <v>19</v>
       </c>
-      <c r="P153" s="3">
-        <v>22</v>
+      <c r="P153">
+        <v>26</v>
       </c>
       <c r="R153" s="1">
         <v>11</v>
@@ -6471,7 +6482,7 @@
   <dimension ref="B1:D1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
